--- a/biology/Zoologie/Coturniculture/Coturniculture.xlsx
+++ b/biology/Zoologie/Coturniculture/Coturniculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coturniculture (du latin coturnix, -icis, caille) est l'élevage de la caille du Japon, la seule espèce de caille domestiquée, et de la caille des blés, élevée à des fins cynégétiques. C'est une des branches de l'aviculture. Elle est pratiquée par le coturniculteur ou la coturnicultrice.
 Il y a très longtemps que les cailles sont élevées pour leur chair et pour leurs œufs. Cet élevage peut se faire simplement, sans trop d’infrastructures.
-Les connaissances liées à cette technique sont d'ordre architectural et alimentaire et touchent les techniques d'incubation artificielle, de génétique et de prophylaxie. Dans certaines exploitations, les courbes de ponte peuvent atteindre 90 % et les courbes de fertilité, 87 %[1].
+Les connaissances liées à cette technique sont d'ordre architectural et alimentaire et touchent les techniques d'incubation artificielle, de génétique et de prophylaxie. Dans certaines exploitations, les courbes de ponte peuvent atteindre 90 % et les courbes de fertilité, 87 %.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Au Japon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pays d'origine de la caille domestique, celle-ci y est élevée depuis plusieurs siècles.
 </t>
@@ -544,9 +558,11 @@
           <t>Au Québec</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On élève des cailles au Québec depuis les années 1950[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On élève des cailles au Québec depuis les années 1950.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016 on comptait 400 000 cailles pondeuses élevées chaque année produisant 83 millions d’œufs et 38 millions de cailles de chair, élevées pour leur viande[3].
-Fin 2020, les cailles d'élevage, vendues vivantes à des fédérations de chasse ou des organisations privées en vue du repeuplement du territoire de chasse, représentaient 8 433 000 têtes[4].
-La production Label Rouge de cailles de chair augmente régulièrement : elle a connu une hausse de 4,4 % depuis 2004, passant à 2,7 millions de têtes aujourd'hui. La DLC est de onze jours maximum après abattage[5]. Ce label n’existe pas pour les cailles pondeuses.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016 on comptait 400 000 cailles pondeuses élevées chaque année produisant 83 millions d’œufs et 38 millions de cailles de chair, élevées pour leur viande.
+Fin 2020, les cailles d'élevage, vendues vivantes à des fédérations de chasse ou des organisations privées en vue du repeuplement du territoire de chasse, représentaient 8 433 000 têtes.
+La production Label Rouge de cailles de chair augmente régulièrement : elle a connu une hausse de 4,4 % depuis 2004, passant à 2,7 millions de têtes aujourd'hui. La DLC est de onze jours maximum après abattage. Ce label n’existe pas pour les cailles pondeuses.
 </t>
         </is>
       </c>
